--- a/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2020-21.xlsx
+++ b/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2020-21.xlsx
@@ -2339,32 +2339,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -2404,32 +2404,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -4029,17 +4029,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4049,12 +4049,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4074,17 +4074,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -4094,17 +4094,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4114,12 +4114,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -4224,32 +4224,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Jusuf Nurkic</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -4289,32 +4289,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jusuf Nurkic</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -5719,32 +5719,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Khyri Thomas</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5764,17 +5764,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -5784,32 +5784,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5849,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Khyri Thomas</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5869,12 +5869,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -5979,32 +5979,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,17 +6024,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -6044,32 +6044,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Kevin Porter Jr.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
@@ -6174,32 +6174,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -6239,32 +6239,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -6369,32 +6369,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Mitchell Robinson</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6414,17 +6414,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -6434,32 +6434,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -6499,32 +6499,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Trevor Ariza</t>
+          <t>James Wiseman</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -6564,32 +6564,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>James Wiseman</t>
+          <t>Trevor Ariza</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -7019,32 +7019,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kendrick Nunn</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -7084,32 +7084,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Kendrick Nunn</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7129,17 +7129,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -7669,12 +7669,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -7734,12 +7734,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Keldon Johnson</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -8384,32 +8384,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nerlens Noel</t>
+          <t>John Wall</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -8449,32 +8449,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>John Wall</t>
+          <t>Nerlens Noel</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8494,17 +8494,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -9229,32 +9229,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -9294,32 +9294,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -10529,32 +10529,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Mike Muscala</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -10594,32 +10594,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Mike Muscala</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -10854,32 +10854,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Michael Carter-Williams</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -10919,32 +10919,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Michael Carter-Williams</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -11244,17 +11244,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Will Barton</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -11264,12 +11264,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -11309,17 +11309,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Will Barton</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -11329,12 +11329,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11354,17 +11354,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -11764,32 +11764,32 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Killian Hayes</t>
+          <t>Jeremy Lamb</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -11829,32 +11829,32 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Jeremy Lamb</t>
+          <t>Killian Hayes</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -11864,7 +11864,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11874,17 +11874,17 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -13454,32 +13454,32 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Hassan Whiteside</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -13489,7 +13489,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -13499,17 +13499,17 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>-2.8</t>
         </is>
       </c>
     </row>
@@ -13519,32 +13519,32 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Hassan Whiteside</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13564,17 +13564,17 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -13714,32 +13714,32 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Willie Cauley-Stein</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -13749,7 +13749,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -13759,17 +13759,17 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-2.1</t>
         </is>
       </c>
     </row>
@@ -13779,32 +13779,32 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Dario Saric</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -13824,17 +13824,17 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-2.5</t>
         </is>
       </c>
     </row>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Willie Cauley-Stein</t>
+          <t>Dario Saric</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -13859,17 +13859,17 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -13889,17 +13889,17 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -13974,32 +13974,32 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Jalen McDaniels</t>
+          <t>Freddie Gillespie</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -14019,17 +14019,17 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -14039,32 +14039,32 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Freddie Gillespie</t>
+          <t>Jalen McDaniels</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -14084,17 +14084,17 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -14299,17 +14299,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Didi Louzada</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -14319,12 +14319,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -14344,17 +14344,17 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -14364,17 +14364,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Didi Louzada</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -14384,12 +14384,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14409,17 +14409,17 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>-0.4</t>
         </is>
       </c>
     </row>
@@ -15469,32 +15469,32 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ignas Brazdeikis</t>
+          <t>Elijah Bryant</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -15504,7 +15504,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15514,17 +15514,17 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>18.0</t>
         </is>
       </c>
     </row>
@@ -15534,32 +15534,32 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Elijah Bryant</t>
+          <t>Marquese Chriss</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -15569,7 +15569,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15579,17 +15579,17 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -15599,17 +15599,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Marquese Chriss</t>
+          <t>Ignas Brazdeikis</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -15619,12 +15619,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -15634,7 +15634,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -15644,17 +15644,17 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -17549,32 +17549,32 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Solomon Hill</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -17584,7 +17584,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -17594,17 +17594,17 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -17614,32 +17614,32 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Solomon Hill</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -17649,7 +17649,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -17659,17 +17659,17 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -17679,17 +17679,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Dennis Smith Jr.</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -17699,12 +17699,12 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -17714,7 +17714,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -17724,17 +17724,17 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -17744,17 +17744,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Dennis Smith Jr.</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -17764,12 +17764,12 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -17789,17 +17789,17 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -17809,32 +17809,32 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Marcus Morris Sr.</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -17854,17 +17854,17 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -18004,32 +18004,32 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Marcus Morris Sr.</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -18049,17 +18049,17 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -18264,32 +18264,32 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -18299,7 +18299,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -18309,17 +18309,17 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
@@ -18329,32 +18329,32 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -18364,7 +18364,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -18374,17 +18374,17 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -18459,17 +18459,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Avery Bradley</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -18479,12 +18479,12 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -18494,27 +18494,27 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>46.8</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
           <t>3.7</t>
-        </is>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>45.5</t>
-        </is>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="M279" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -18524,17 +18524,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Avery Bradley</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -18544,12 +18544,12 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18569,17 +18569,17 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -18979,32 +18979,32 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>Drew Eubanks</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -19024,17 +19024,17 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -19044,32 +19044,32 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Drew Eubanks</t>
+          <t>James Johnson</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -19089,17 +19089,17 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -20149,32 +20149,32 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>P.J. Dozier</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -20189,22 +20189,22 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-0.8</t>
         </is>
       </c>
     </row>
@@ -20214,32 +20214,32 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -20249,7 +20249,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20259,17 +20259,17 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -20279,32 +20279,32 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>P.J. Dozier</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -20324,17 +20324,17 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -20344,32 +20344,32 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Wayne Ellington</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -20379,7 +20379,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -20389,17 +20389,17 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -20409,32 +20409,32 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Wayne Ellington</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -20444,7 +20444,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -20454,17 +20454,17 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -20604,32 +20604,32 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Jay Scrubb</t>
+          <t>Damion Lee</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -20639,7 +20639,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -20649,17 +20649,17 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -20669,32 +20669,32 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Damion Lee</t>
+          <t>Jay Scrubb</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -20704,7 +20704,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -20714,17 +20714,17 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>10.3</t>
         </is>
       </c>
     </row>
@@ -21384,17 +21384,17 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Gary Clark</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -21404,12 +21404,12 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -21429,17 +21429,17 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -21449,17 +21449,17 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Gary Clark</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -21469,12 +21469,12 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -21494,17 +21494,17 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -22424,12 +22424,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Matthew Dellavedova</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -22459,7 +22459,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -22469,17 +22469,17 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>7.6</t>
         </is>
       </c>
     </row>
@@ -22489,12 +22489,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Matthew Dellavedova</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -22524,7 +22524,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -22534,17 +22534,17 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -23464,32 +23464,32 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -23499,7 +23499,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -23509,17 +23509,17 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -23529,32 +23529,32 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -23574,17 +23574,17 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -23854,32 +23854,32 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Troy Brown Jr.</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -23889,7 +23889,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -23899,17 +23899,17 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>5.8</t>
         </is>
       </c>
     </row>
@@ -23919,32 +23919,32 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Troy Brown Jr.</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -23954,7 +23954,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -23964,17 +23964,17 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -24374,32 +24374,32 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Glenn Robinson III</t>
+          <t>D.J. Augustin</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -24419,17 +24419,17 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -24439,32 +24439,32 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>D.J. Augustin</t>
+          <t>Glenn Robinson III</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -24484,17 +24484,17 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -24504,32 +24504,32 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Sekou Doumbouya</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -24539,7 +24539,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -24549,17 +24549,17 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -24569,32 +24569,32 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Sekou Doumbouya</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -24604,7 +24604,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -24614,17 +24614,17 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -24699,32 +24699,32 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Yuta Watanabe</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -24734,7 +24734,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -24744,17 +24744,17 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -24764,32 +24764,32 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Yuta Watanabe</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -24799,7 +24799,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -24809,17 +24809,17 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -25349,7 +25349,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Semi Ojeleye</t>
+          <t>Romeo Langford</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -25359,22 +25359,22 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -25384,7 +25384,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -25394,17 +25394,17 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-9.3</t>
         </is>
       </c>
     </row>
@@ -25479,32 +25479,32 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Kira Lewis Jr.</t>
+          <t>Semi Ojeleye</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -25514,7 +25514,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -25524,17 +25524,17 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -25544,32 +25544,32 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Romeo Langford</t>
+          <t>Kira Lewis Jr.</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -25589,17 +25589,17 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>-9.3</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -25804,32 +25804,32 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Jarrett Culver</t>
+          <t>Ben McLemore</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -25849,17 +25849,17 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -25934,32 +25934,32 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Ben McLemore</t>
+          <t>Jarrett Culver</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -25969,7 +25969,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -25979,17 +25979,17 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -26454,32 +26454,32 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Chris Silva</t>
+          <t>Isaiah Thomas</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -26489,7 +26489,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -26499,17 +26499,17 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>23.5</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>-18.4</t>
         </is>
       </c>
     </row>
@@ -26519,22 +26519,22 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Isaiah Thomas</t>
+          <t>Cameron Reynolds</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -26554,7 +26554,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -26564,17 +26564,17 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>-18.4</t>
+          <t>-14.0</t>
         </is>
       </c>
     </row>
@@ -26584,17 +26584,17 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Cameron Reynolds</t>
+          <t>Chris Silva</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -26604,12 +26604,12 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -26629,17 +26629,17 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-4.3</t>
         </is>
       </c>
     </row>
@@ -27104,7 +27104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Alen Smailagic</t>
+          <t>Mychal Mulder</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -27114,22 +27114,22 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -27139,7 +27139,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -27149,17 +27149,17 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -27169,7 +27169,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Mychal Mulder</t>
+          <t>Alen Smailagic</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -27179,22 +27179,22 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -27204,7 +27204,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -27214,17 +27214,17 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -27429,7 +27429,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Brandon Goodwin</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -27439,7 +27439,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -27449,12 +27449,12 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -27464,7 +27464,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -27474,17 +27474,17 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -27494,32 +27494,32 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Reggie Perry</t>
+          <t>Brandon Goodwin</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -27529,7 +27529,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -27539,17 +27539,17 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -27559,32 +27559,32 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Reggie Perry</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -27594,7 +27594,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -27604,17 +27604,17 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -28274,32 +28274,32 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Andre Roberson</t>
+          <t>Tim Frazier</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -28309,7 +28309,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -28319,17 +28319,17 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-12.4</t>
         </is>
       </c>
     </row>
@@ -28339,32 +28339,32 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tim Frazier</t>
+          <t>Andre Roberson</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -28374,7 +28374,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -28384,17 +28384,17 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>-12.4</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -28664,32 +28664,32 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Alize Johnson</t>
+          <t>Isaac Bonga</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -28699,7 +28699,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -28709,17 +28709,17 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -28729,32 +28729,32 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Isaac Bonga</t>
+          <t>Alize Johnson</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -28764,7 +28764,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -28774,17 +28774,17 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -28859,12 +28859,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Jalen Harris</t>
+          <t>Jordan Nwora</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -28874,17 +28874,17 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -28904,17 +28904,17 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -28924,12 +28924,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Jordan Nwora</t>
+          <t>Jalen Harris</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -28939,17 +28939,17 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -28969,17 +28969,17 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -29704,32 +29704,32 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Norvel Pelle</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -29739,7 +29739,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -29749,17 +29749,17 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>7.9</t>
         </is>
       </c>
     </row>
@@ -29769,32 +29769,32 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>Norvel Pelle</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -29804,7 +29804,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -29814,17 +29814,17 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -30029,32 +30029,32 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Frank Ntilikina</t>
+          <t>Anthony Tolliver</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -30074,17 +30074,17 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>-9.2</t>
         </is>
       </c>
     </row>
@@ -30094,32 +30094,32 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Anthony Tolliver</t>
+          <t>Frank Ntilikina</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
@@ -30129,7 +30129,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -30139,17 +30139,17 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>-9.2</t>
+          <t>3.1</t>
         </is>
       </c>
     </row>
@@ -30224,32 +30224,32 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Anthony Gill</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -30259,7 +30259,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -30269,7 +30269,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -30279,7 +30279,7 @@
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>-5.7</t>
         </is>
       </c>
     </row>
@@ -30289,32 +30289,32 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Anthony Gill</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
@@ -30324,7 +30324,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -30334,7 +30334,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -30344,7 +30344,7 @@
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>6.8</t>
         </is>
       </c>
     </row>
@@ -30939,32 +30939,32 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Meyers Leonard</t>
+          <t>Malik Fitts</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
@@ -30989,12 +30989,12 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -31004,32 +31004,32 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Malik Fitts</t>
+          <t>Meyers Leonard</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -31054,12 +31054,12 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -31849,32 +31849,32 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Sam Merrill</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -31884,7 +31884,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -31894,17 +31894,17 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-5.0</t>
         </is>
       </c>
     </row>
@@ -31914,32 +31914,32 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>Sam Merrill</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -31949,7 +31949,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -31959,17 +31959,17 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -32824,32 +32824,32 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Vincent Poirier</t>
+          <t>Cristiano Felicio</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
@@ -32859,7 +32859,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -32869,17 +32869,17 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M500" t="inlineStr">
         <is>
-          <t>-9.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -32889,32 +32889,32 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Cristiano Felicio</t>
+          <t>Tyler Bey</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -32924,7 +32924,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
@@ -32934,17 +32934,17 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="M501" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>15.4</t>
         </is>
       </c>
     </row>
@@ -32954,32 +32954,32 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Tre Jones</t>
+          <t>Vincent Poirier</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -32989,7 +32989,7 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
@@ -32999,17 +32999,17 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>-9.1</t>
         </is>
       </c>
     </row>
@@ -33084,32 +33084,32 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Tyler Bey</t>
+          <t>Tre Jones</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -33119,7 +33119,7 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
@@ -33129,17 +33129,17 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>15.4</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
@@ -33799,22 +33799,22 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Devon Dotson</t>
+          <t>T.J. Leaf</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -33834,7 +33834,7 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
@@ -33844,17 +33844,17 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>23.5</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>-13.2</t>
+          <t>-20.7</t>
         </is>
       </c>
     </row>
@@ -33864,22 +33864,22 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>T.J. Leaf</t>
+          <t>Devon Dotson</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -33899,7 +33899,7 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
@@ -33909,17 +33909,17 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>29.4</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>-20.7</t>
+          <t>-13.2</t>
         </is>
       </c>
     </row>
@@ -33929,32 +33929,32 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Jarrell Brantley</t>
+          <t>Rayjon Tucker</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
@@ -33974,17 +33974,17 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -33994,32 +33994,32 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Rayjon Tucker</t>
+          <t>Jarrell Brantley</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -34039,17 +34039,17 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -34189,12 +34189,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Jaylen Adams</t>
+          <t>Noah Vonleh</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -34204,17 +34204,17 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -34239,12 +34239,12 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>28.8</t>
         </is>
       </c>
     </row>
@@ -34254,32 +34254,32 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Brian Bowen II</t>
+          <t>Iman Shumpert</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
@@ -34289,7 +34289,7 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
@@ -34299,17 +34299,17 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>-22.0</t>
         </is>
       </c>
     </row>
@@ -34319,32 +34319,32 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Noah Vonleh</t>
+          <t>Cassius Stanley</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
@@ -34354,7 +34354,7 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
@@ -34364,17 +34364,17 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>-7.4</t>
         </is>
       </c>
     </row>
@@ -34384,17 +34384,17 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Cassius Stanley</t>
+          <t>Jaylen Adams</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -34404,12 +34404,12 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
@@ -34419,7 +34419,7 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
@@ -34429,17 +34429,17 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>29.4</t>
         </is>
       </c>
     </row>
@@ -34449,32 +34449,32 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Iman Shumpert</t>
+          <t>Brian Bowen II</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
@@ -34484,7 +34484,7 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
@@ -34494,17 +34494,17 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M525" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -34644,32 +34644,32 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tyrell Terry</t>
+          <t>James Nunnally</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
@@ -34679,7 +34679,7 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
@@ -34689,17 +34689,17 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>26.1</t>
         </is>
       </c>
     </row>
@@ -34709,32 +34709,32 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>James Nunnally</t>
+          <t>Tyrell Terry</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
@@ -34744,7 +34744,7 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
@@ -34754,17 +34754,17 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -34774,32 +34774,32 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Terrance Ferguson</t>
+          <t>Nate Hinton</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
@@ -34809,7 +34809,7 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
@@ -34819,17 +34819,17 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>10.2</t>
         </is>
       </c>
     </row>
@@ -34839,12 +34839,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Elijah Hughes</t>
+          <t>Terrance Ferguson</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -34859,12 +34859,12 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
@@ -34874,7 +34874,7 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
@@ -34884,17 +34884,17 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M531" t="inlineStr">
         <is>
-          <t>-12.7</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -34904,32 +34904,32 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Nate Hinton</t>
+          <t>Elijah Hughes</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -34939,7 +34939,7 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
@@ -34949,17 +34949,17 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="M532" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>-12.7</t>
         </is>
       </c>
     </row>
